--- a/excel/example.jpg.xlsx
+++ b/excel/example.jpg.xlsx
@@ -26,7 +26,7 @@
     <t>Chart categories</t>
   </si>
   <si>
-    <t>Number of droplets (example.jpg)</t>
+    <t>example.jpg</t>
   </si>
 </sst>
 </file>
@@ -109,58 +109,37 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Number of droplets (example.jpg)</c:v>
+                  <c:v>example.jpg</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>Plot!$B$2:$B$12</c:f>
+              <c:f>Plot!$B$2:$B$5</c:f>
               <c:strCache>
-                <c:ptCount val="11"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0 - 0.35</c:v>
+                  <c:v>0 - 0.15 µm</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.35 - 0.7</c:v>
+                  <c:v>0.15 - 0.6 µm</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.7 - 1.05</c:v>
+                  <c:v>0.6 - 2 µm</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.05 - 1.4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.4 - 1.75</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.75 - 2.1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.1 - 2.45</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.45 - 2.8</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2.8 - 3.15</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.15 - 3.5</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>&gt;3.5</c:v>
+                  <c:v>&gt;2 µm</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Plot!$C$2:$C$12</c:f>
+              <c:f>Plot!$C$2:$C$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
+                <c:ptCount val="4"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -171,27 +150,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -288,10 +246,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -598,7 +556,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -617,24 +575,24 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.35</v>
+        <v>0.15</v>
       </c>
       <c r="B2" t="str">
-        <f>"0 - "&amp;'Plot'!A2&amp;""</f>
-        <v>0 - 0.35</v>
+        <f>"0 - "&amp;'Plot'!A2&amp;" µm"</f>
+        <v>0 - 0.15 µm</v>
       </c>
       <c r="C2">
-        <f t="array" ref="C2:C12">frequency('Droplet diameters'!A2:A12,'Plot'!A2:A11)</f>
+        <f t="array" ref="C2:C5">frequency('Droplet diameters'!A2:A12,'Plot'!A2:A4)</f>
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="B3" t="str">
-        <f>""&amp;'Plot'!A2&amp;" - "&amp;'Plot'!A3&amp;""</f>
-        <v>0.35 - 0.7</v>
+        <f>""&amp;'Plot'!A2&amp;" - "&amp;'Plot'!A3&amp;" µm"</f>
+        <v>0.15 - 0.6 µm</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -642,106 +600,22 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4">
-        <v>1.05</v>
+        <v>2</v>
       </c>
       <c r="B4" t="str">
-        <f>""&amp;'Plot'!A3&amp;" - "&amp;'Plot'!A4&amp;""</f>
-        <v>0.7 - 1.05</v>
+        <f>""&amp;'Plot'!A3&amp;" - "&amp;'Plot'!A4&amp;" µm"</f>
+        <v>0.6 - 2 µm</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5">
-        <v>1.4</v>
-      </c>
       <c r="B5" t="str">
-        <f>""&amp;'Plot'!A4&amp;" - "&amp;'Plot'!A5&amp;""</f>
-        <v>1.05 - 1.4</v>
+        <f>"&gt;"&amp;'Plot'!A4&amp;" µm"</f>
+        <v>&gt;2 µm</v>
       </c>
       <c r="C5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6">
-        <v>1.75</v>
-      </c>
-      <c r="B6" t="str">
-        <f>""&amp;'Plot'!A5&amp;" - "&amp;'Plot'!A6&amp;""</f>
-        <v>1.4 - 1.75</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7">
-        <v>2.1</v>
-      </c>
-      <c r="B7" t="str">
-        <f>""&amp;'Plot'!A6&amp;" - "&amp;'Plot'!A7&amp;""</f>
-        <v>1.75 - 2.1</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8">
-        <v>2.45</v>
-      </c>
-      <c r="B8" t="str">
-        <f>""&amp;'Plot'!A7&amp;" - "&amp;'Plot'!A8&amp;""</f>
-        <v>2.1 - 2.45</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>2.8</v>
-      </c>
-      <c r="B9" t="str">
-        <f>""&amp;'Plot'!A8&amp;" - "&amp;'Plot'!A9&amp;""</f>
-        <v>2.45 - 2.8</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10">
-        <v>3.15</v>
-      </c>
-      <c r="B10" t="str">
-        <f>""&amp;'Plot'!A9&amp;" - "&amp;'Plot'!A10&amp;""</f>
-        <v>2.8 - 3.15</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11">
-        <v>3.5</v>
-      </c>
-      <c r="B11" t="str">
-        <f>""&amp;'Plot'!A10&amp;" - "&amp;'Plot'!A11&amp;""</f>
-        <v>3.15 - 3.5</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="B12" t="str">
-        <f>"&gt;"&amp;'Plot'!A11&amp;""</f>
-        <v>&gt;3.5</v>
-      </c>
-      <c r="C12">
         <v>0</v>
       </c>
     </row>

--- a/excel/example.jpg.xlsx
+++ b/excel/example.jpg.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Droplet diameter [µm] (example.jpg)</t>
   </si>
@@ -28,13 +28,27 @@
   <si>
     <t>example.jpg</t>
   </si>
+  <si>
+    <t>Average droplet diameter (µm)</t>
+  </si>
+  <si>
+    <t>Maximum droplet diameter (µm)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -62,8 +76,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -246,10 +261,10 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -556,20 +571,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -617,6 +632,24 @@
       </c>
       <c r="C5">
         <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <f>AVERAGE('Droplet diameters'!A2:A12)</f>
+        <v>5.320129859006658</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <f>MAX('Droplet diameters'!A2:A12)</f>
+        <v>23.550947379927383</v>
       </c>
     </row>
   </sheetData>
@@ -634,7 +667,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>

--- a/excel/example.jpg.xlsx
+++ b/excel/example.jpg.xlsx
@@ -597,7 +597,7 @@
         <v>0 - 0.15 µm</v>
       </c>
       <c r="C2">
-        <f t="array" ref="C2:C5">frequency('Droplet diameters'!A2:A12,'Plot'!A2:A4)</f>
+        <f t="array" ref="C2:C5">frequency('Droplet diameters'!A2:A8,'Plot'!A2:A4)</f>
         <v>0</v>
       </c>
     </row>
@@ -639,8 +639,8 @@
         <v>4</v>
       </c>
       <c r="C7">
-        <f>AVERAGE('Droplet diameters'!A2:A12)</f>
-        <v>5.320129859006658</v>
+        <f>AVERAGE('Droplet diameters'!A2:A8)</f>
+        <v>8.315694431335414</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -648,8 +648,8 @@
         <v>5</v>
       </c>
       <c r="C8">
-        <f>MAX('Droplet diameters'!A2:A12)</f>
-        <v>23.550947379927383</v>
+        <f>MAX('Droplet diameters'!A2:A8)</f>
+        <v>23.550652247506846</v>
       </c>
     </row>
   </sheetData>
@@ -660,7 +660,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A12"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -673,57 +673,37 @@
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>23.55094737992738</v>
+        <v>23.55065224750685</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3">
-        <v>19.90871253011628</v>
+        <v>19.9056400039448</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4">
-        <v>10.00026491309117</v>
+        <v>9.996371919901266</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>2.492757603907437</v>
+        <v>2.4392042757347</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6">
-        <v>1.321359854136189</v>
+        <v>1.32030739689701</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7">
-        <v>0.9246211982316703</v>
+        <v>0.9231165248209556</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8">
-        <v>0.1054559969248142</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9">
         <v>0.07456865054232387</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10">
-        <v>0.05272799846240712</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11">
-        <v>0.05272799846240712</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12">
-        <v>0.03728432527116193</v>
       </c>
     </row>
   </sheetData>
